--- a/tabla de precios.xlsx
+++ b/tabla de precios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER NITRO\Desktop\Escuela\Proyectos\Redes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER NITRO\Desktop\Escuela\Proyectos\Redes\RedesP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823B0319-F83A-4C07-ACFB-7CEFDC10E4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14F848F-F6A9-4C73-B3AB-2F74672397A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FA4A406E-2686-48FD-9101-E33546594B4C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Item No°</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Configuración de red y documentación</t>
+  </si>
+  <si>
+    <t>Capacitación</t>
   </si>
 </sst>
 </file>
@@ -549,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81669114-F1C3-4A66-A231-8E042E9A0EEA}">
-  <dimension ref="D5:K15"/>
+  <dimension ref="D5:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,10 +764,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="4">
-        <v>1210.23</v>
+        <v>4000</v>
       </c>
       <c r="K13" s="4">
-        <v>1210.23</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="14" spans="4:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -783,25 +786,47 @@
         <v>1</v>
       </c>
       <c r="J14" s="4">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="K14" s="4">
-        <v>200</v>
+        <v>750</v>
       </c>
     </row>
     <row r="15" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>9</v>
+      </c>
       <c r="E15" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>600</v>
+      </c>
       <c r="K15" s="4">
-        <f>SUM(K7:K14)</f>
-        <v>1917.68</v>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4">
+        <f>SUM(K8:K15)</f>
+        <v>5644.06</v>
       </c>
     </row>
   </sheetData>

--- a/tabla de precios.xlsx
+++ b/tabla de precios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER NITRO\Desktop\Escuela\Proyectos\Redes\RedesP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14F848F-F6A9-4C73-B3AB-2F74672397A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA189ED-9500-4584-BAFC-E20D65190047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FA4A406E-2686-48FD-9101-E33546594B4C}"/>
   </bookViews>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81669114-F1C3-4A66-A231-8E042E9A0EEA}">
   <dimension ref="D5:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,10 +764,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="4">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="K13" s="4">
-        <v>4000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="14" spans="4:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -826,7 +826,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4">
         <f>SUM(K8:K15)</f>
-        <v>5644.06</v>
+        <v>7144.06</v>
       </c>
     </row>
   </sheetData>
